--- a/NEW HR/ROLLE, MICHELLYN GOLFO.xlsx
+++ b/NEW HR/ROLLE, MICHELLYN GOLFO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>1/17-23/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/3-5/2023</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +947,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,7 +1011,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,7 +1071,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1137,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1200,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1298,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1357,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1422,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1465,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1540,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1726,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1792,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1850,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1916,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1972,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2047,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2090,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2156,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2212,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,9 +2658,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A15" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2825,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2829,7 +2835,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3214,19 +3220,27 @@
       <c r="A27" s="40">
         <v>44986</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H27" s="39"/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="39">
+        <v>3</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">

--- a/NEW HR/ROLLE, MICHELLYN GOLFO.xlsx
+++ b/NEW HR/ROLLE, MICHELLYN GOLFO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>3/3-5/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>9/17-19/2023</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2314,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2655,12 +2661,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2831,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.75</v>
+        <v>13.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2835,7 +2841,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3247,13 +3253,15 @@
         <v>45017</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
@@ -3265,13 +3273,15 @@
         <v>45047</v>
       </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
@@ -3283,13 +3293,15 @@
         <v>45078</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
@@ -3300,7 +3312,9 @@
       <c r="A31" s="40">
         <v>45108</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -3312,15 +3326,19 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="49">
+        <v>45185</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B32" s="20"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="39"/>
+      <c r="D32" s="39">
+        <v>3</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13" t="str">
@@ -3330,11 +3348,13 @@
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="49" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3352,7 +3372,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3370,7 +3390,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3388,7 +3408,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3406,7 +3426,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3424,7 +3444,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3442,7 +3462,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3460,7 +3480,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3478,7 +3498,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3496,7 +3516,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3514,7 +3534,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3532,7 +3552,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3550,7 +3570,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3568,7 +3588,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3586,7 +3606,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3604,7 +3624,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3622,7 +3642,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3640,7 +3660,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3658,7 +3678,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3676,7 +3696,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3694,7 +3714,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3712,7 +3732,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3730,7 +3750,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3748,7 +3768,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3766,7 +3786,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3784,7 +3804,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3802,7 +3822,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3820,7 +3840,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3838,7 +3858,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3856,7 +3876,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3874,7 +3894,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3892,7 +3912,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3910,7 +3930,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -3928,7 +3948,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -3946,7 +3966,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -3964,7 +3984,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -3982,7 +4002,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4000,7 +4020,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4018,7 +4038,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4036,7 +4056,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4054,7 +4074,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4072,7 +4092,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4090,7 +4110,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4108,7 +4128,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4126,7 +4146,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4144,7 +4164,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4162,7 +4182,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4180,7 +4200,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4198,7 +4218,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4216,7 +4236,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4234,7 +4254,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4252,7 +4272,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4270,7 +4290,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4288,7 +4308,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4306,7 +4326,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4324,7 +4344,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4342,7 +4362,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4360,7 +4380,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4378,7 +4398,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4396,7 +4416,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4414,7 +4434,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4432,7 +4452,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4450,7 +4470,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4468,7 +4488,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4486,7 +4506,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4504,7 +4524,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4522,7 +4542,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4540,7 +4560,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4558,7 +4578,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4576,7 +4596,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4594,7 +4614,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4612,7 +4632,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4630,7 +4650,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4648,7 +4668,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4666,7 +4686,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4684,7 +4704,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4702,7 +4722,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4720,7 +4740,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4738,7 +4758,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4756,7 +4776,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4774,7 +4794,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4792,7 +4812,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4810,7 +4830,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4828,7 +4848,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4846,7 +4866,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4864,7 +4884,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4882,7 +4902,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4900,7 +4920,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4918,7 +4938,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4936,7 +4956,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4954,7 +4974,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4972,7 +4992,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4990,7 +5010,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5008,7 +5028,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5026,7 +5046,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5043,7 +5063,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>48030</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5091,20 +5113,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/ROLLE, MICHELLYN GOLFO.xlsx
+++ b/NEW HR/ROLLE, MICHELLYN GOLFO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -910,7 +910,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +953,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +1017,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1077,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1143,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1206,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1304,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1732,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1798,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1856,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1922,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1978,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2053,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2096,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2162,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2218,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2666,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2831,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.5</v>
+        <v>14.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2841,7 +2841,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3315,13 +3315,15 @@
       <c r="B31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
@@ -3356,7 +3358,9 @@
       <c r="A33" s="40">
         <v>45139</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -3365,10 +3369,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>1</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="49">
+        <v>45153</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
